--- a/Orders/Order Sheet EEE.XLSX
+++ b/Orders/Order Sheet EEE.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ringl\Documents\Uni Classes\Y3S2\EE318-Project\EE318-Project\Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A7D795-C7CD-4E11-B1A0-931D5F027F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA52BC-08D1-4107-851B-8DEB98DAB28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Qty</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>10k Rotary Potentiometer</t>
+  </si>
+  <si>
+    <t>580-856</t>
+  </si>
+  <si>
+    <t>TC4051BP Multiplexer/Demultiplexer</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,9 +493,55 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -499,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -508,57 +560,11 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,13 +907,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.69140625" customWidth="1"/>
+    <col min="1" max="1" width="17.84375" customWidth="1"/>
     <col min="2" max="2" width="8.69140625" customWidth="1"/>
     <col min="3" max="3" width="12.69140625" customWidth="1"/>
     <col min="4" max="4" width="7.69140625" customWidth="1"/>
@@ -919,38 +925,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
@@ -960,100 +966,110 @@
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="9"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="9"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="46">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="18">
         <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="50">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="2">
+      <c r="J5" s="50">
         <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="50">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="2">
+      <c r="J6" s="50">
         <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="50">
+        <v>1</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="50">
+        <v>0.53300000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
@@ -1061,11 +1077,11 @@
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
@@ -1073,11 +1089,11 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
@@ -1085,11 +1101,11 @@
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="5"/>
@@ -1097,11 +1113,11 @@
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5"/>
@@ -1109,11 +1125,11 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="5"/>
@@ -1121,11 +1137,11 @@
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="5"/>
@@ -1133,11 +1149,11 @@
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="5"/>
@@ -1145,11 +1161,11 @@
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="5"/>
@@ -1157,11 +1173,11 @@
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="5"/>
@@ -1169,64 +1185,64 @@
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="5"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="5"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="14"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="2">
         <f>SUM(J4:J18)</f>
-        <v>8.75</v>
+        <v>9.2829999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1236,77 +1252,77 @@
       <c r="I21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="14">
         <v>45012</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1332,6 +1348,23 @@
     <row r="49" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:J1"/>
@@ -1347,24 +1380,7 @@
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C23" r:id="rId1" xr:uid="{A8B315E3-BAA4-4C2B-B3E3-979337606596}"/>
